--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/15.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/3_fold/15.xlsx
@@ -479,13 +479,13 @@
         <v>-0.001740610426455125</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.627118542217606</v>
+        <v>-1.628541455503262</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02149413225108177</v>
+        <v>0.02678755855601598</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2273677349412848</v>
+        <v>-0.2310745499719479</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.0001957380304631379</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.651612640773727</v>
+        <v>-1.65391621775775</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02285565879100686</v>
+        <v>0.03021892024045148</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.2025234171306747</v>
+        <v>-0.2058933920693795</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.0003025573416935073</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.705371689842631</v>
+        <v>-1.706380636099384</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.01725664449621987</v>
+        <v>-0.01028688782710042</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2125026983597211</v>
+        <v>-0.2155783317227426</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>0.001208522600804458</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.817134130541025</v>
+        <v>-1.819877645869452</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.02359836753594034</v>
+        <v>-0.01500107509539598</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2319937771387875</v>
+        <v>-0.2350772805974155</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>0.009105811848251129</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.782737090683241</v>
+        <v>-1.784317405881027</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.002750484274312726</v>
+        <v>0.007658504174848722</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2265760033232705</v>
+        <v>-0.22978228027336</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>0.02749834722152188</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.602952626648277</v>
+        <v>-1.599599965919906</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06086349851305457</v>
+        <v>0.06918691162649261</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2097025183429272</v>
+        <v>-0.2121894685545822</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>0.06027782926561306</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.342522505923911</v>
+        <v>-1.338906984002283</v>
       </c>
       <c r="F8" t="n">
-        <v>0.09591847836354218</v>
+        <v>0.1077188997159334</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1990511309490854</v>
+        <v>-0.2028067405725088</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>0.1088766699691397</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9356661084023058</v>
+        <v>-0.9321607678191692</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1925789926026174</v>
+        <v>0.2030068692812345</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1741548705074724</v>
+        <v>-0.1795994026480515</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>0.1726634565224742</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.4949494115432804</v>
+        <v>-0.4982957761951657</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2051081848081709</v>
+        <v>0.2121739566436897</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.127082254665854</v>
+        <v>-0.1319743060948566</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.2473401318096836</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.01956415652804668</v>
+        <v>-0.02830625872775069</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1793367697351147</v>
+        <v>0.1884251561415049</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06205165466931614</v>
+        <v>-0.06580569027361828</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.3268216388003211</v>
       </c>
       <c r="E12" t="n">
-        <v>0.533226636815391</v>
+        <v>0.5150750483085514</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1422733414858474</v>
+        <v>0.1486874694051477</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03107518664243905</v>
+        <v>0.02649951305681796</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.4055988023427596</v>
       </c>
       <c r="E13" t="n">
-        <v>1.102058259024004</v>
+        <v>1.078854069137789</v>
       </c>
       <c r="F13" t="n">
-        <v>0.02263057405666086</v>
+        <v>0.02899905542144345</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1333911515843477</v>
+        <v>0.1315731594992454</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.4797830846560608</v>
       </c>
       <c r="E14" t="n">
-        <v>1.707858868334606</v>
+        <v>1.676298210933406</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1821319994142243</v>
+        <v>-0.1734229516160676</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2527726318393984</v>
+        <v>0.2504194732530538</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.5479599862096222</v>
       </c>
       <c r="E15" t="n">
-        <v>2.350702443645899</v>
+        <v>2.313495779656593</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.4558838309717186</v>
+        <v>-0.44835844555278</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3765849759209104</v>
+        <v>0.3745434731205834</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.6108228716442456</v>
       </c>
       <c r="E16" t="n">
-        <v>2.973066456169948</v>
+        <v>2.928502826807683</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6915806022335262</v>
+        <v>-0.683638101747443</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5252054353732427</v>
+        <v>0.5227043189894959</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6709566623912987</v>
       </c>
       <c r="E17" t="n">
-        <v>3.571499081973742</v>
+        <v>3.522523477014471</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.9353796369222291</v>
+        <v>-0.9286223728344852</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6871657068785982</v>
+        <v>0.6852690138374309</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.7333307207533278</v>
       </c>
       <c r="E18" t="n">
-        <v>4.140815502071716</v>
+        <v>4.086425271335171</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.157960106846238</v>
+        <v>-1.15031430896452</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8220449794019755</v>
+        <v>0.8182673335108538</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.8018355984976304</v>
       </c>
       <c r="E19" t="n">
-        <v>4.6156577204901</v>
+        <v>4.558306759786388</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.370851702069081</v>
+        <v>-1.364875151465502</v>
       </c>
       <c r="G19" t="n">
-        <v>0.997280528176381</v>
+        <v>0.9931880784609992</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.8781112150610361</v>
       </c>
       <c r="E20" t="n">
-        <v>4.98263398254487</v>
+        <v>4.923405217029447</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.544290508016521</v>
+        <v>-1.536695865756246</v>
       </c>
       <c r="G20" t="n">
-        <v>1.132532843231506</v>
+        <v>1.130949379995478</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.9619985651138605</v>
       </c>
       <c r="E21" t="n">
-        <v>5.320346081096418</v>
+        <v>5.263920643636031</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.758667977289872</v>
+        <v>-1.747765533846183</v>
       </c>
       <c r="G21" t="n">
-        <v>1.265044790996448</v>
+        <v>1.263240965083437</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.049736846258029</v>
       </c>
       <c r="E22" t="n">
-        <v>5.616478890539687</v>
+        <v>5.558307865873777</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.910798499382705</v>
+        <v>-1.896260071768811</v>
       </c>
       <c r="G22" t="n">
-        <v>1.372797417983329</v>
+        <v>1.370589069156144</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.139404187279927</v>
       </c>
       <c r="E23" t="n">
-        <v>5.78002105126195</v>
+        <v>5.721264491482916</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.040019173165006</v>
+        <v>-2.022642002065846</v>
       </c>
       <c r="G23" t="n">
-        <v>1.482117768015025</v>
+        <v>1.478436137290303</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.227290068299485</v>
       </c>
       <c r="E24" t="n">
-        <v>5.938856894811524</v>
+        <v>5.87679646889688</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.133310499474937</v>
+        <v>-2.113288189242432</v>
       </c>
       <c r="G24" t="n">
-        <v>1.522363862927563</v>
+        <v>1.520531704670369</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.310448949256875</v>
       </c>
       <c r="E25" t="n">
-        <v>6.033863114954111</v>
+        <v>5.975917175022548</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.166878031255795</v>
+        <v>-2.146513371864407</v>
       </c>
       <c r="G25" t="n">
-        <v>1.594597174423173</v>
+        <v>1.593936086392226</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.386503152222669</v>
       </c>
       <c r="E26" t="n">
-        <v>6.090329476911653</v>
+        <v>6.036660146932663</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.190015325329355</v>
+        <v>-2.172586211599192</v>
       </c>
       <c r="G26" t="n">
-        <v>1.663842997626554</v>
+        <v>1.663029229740841</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.453464311966739</v>
       </c>
       <c r="E27" t="n">
-        <v>6.078870617708584</v>
+        <v>6.026718642162528</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.18622115223746</v>
+        <v>-2.175351763195318</v>
       </c>
       <c r="G27" t="n">
-        <v>1.636979213283315</v>
+        <v>1.638227410446506</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.512465664749363</v>
       </c>
       <c r="E28" t="n">
-        <v>6.018725773064563</v>
+        <v>5.968352439125577</v>
       </c>
       <c r="F28" t="n">
-        <v>-2.201102716019797</v>
+        <v>-2.195159219817766</v>
       </c>
       <c r="G28" t="n">
-        <v>1.630648508377444</v>
+        <v>1.634142830826731</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.564148263429083</v>
       </c>
       <c r="E29" t="n">
-        <v>5.91785633169513</v>
+        <v>5.869393856969403</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.15351067386815</v>
+        <v>-2.153024301959667</v>
       </c>
       <c r="G29" t="n">
-        <v>1.604463126275485</v>
+        <v>1.609276476748423</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.608718376929214</v>
       </c>
       <c r="E30" t="n">
-        <v>5.787710134669504</v>
+        <v>5.741331661260379</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.153641317455218</v>
+        <v>-2.157980101163083</v>
       </c>
       <c r="G30" t="n">
-        <v>1.539256236137362</v>
+        <v>1.544417444836107</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.646286682890704</v>
       </c>
       <c r="E31" t="n">
-        <v>5.590228973653756</v>
+        <v>5.544879908749961</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.099045677223343</v>
+        <v>-2.109516052418234</v>
       </c>
       <c r="G31" t="n">
-        <v>1.47641194870031</v>
+        <v>1.483343928910519</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.676309677856453</v>
       </c>
       <c r="E32" t="n">
-        <v>5.410003784264827</v>
+        <v>5.372000666600143</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.023537618945866</v>
+        <v>-2.036749935450064</v>
       </c>
       <c r="G32" t="n">
-        <v>1.43326965860458</v>
+        <v>1.44114762430669</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.700305022939763</v>
       </c>
       <c r="E33" t="n">
-        <v>5.145573293943675</v>
+        <v>5.11144068929827</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.988817118158655</v>
+        <v>-2.004709989226428</v>
       </c>
       <c r="G33" t="n">
-        <v>1.373674146633893</v>
+        <v>1.381882656351476</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.718684803433803</v>
       </c>
       <c r="E34" t="n">
-        <v>4.921813883697812</v>
+        <v>4.894525114191822</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.9207887987456</v>
+        <v>-1.940138215803749</v>
       </c>
       <c r="G34" t="n">
-        <v>1.27818942467843</v>
+        <v>1.286671813723119</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.731383593642178</v>
       </c>
       <c r="E35" t="n">
-        <v>4.632602036330902</v>
+        <v>4.611195376281213</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.883858375112083</v>
+        <v>-1.902825305523756</v>
       </c>
       <c r="G35" t="n">
-        <v>1.193008231891</v>
+        <v>1.20340305416807</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.737363338266699</v>
       </c>
       <c r="E36" t="n">
-        <v>4.260905290931351</v>
+        <v>4.246148861669157</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.845526287451047</v>
+        <v>-1.867483854193192</v>
       </c>
       <c r="G36" t="n">
-        <v>1.143750877509017</v>
+        <v>1.154098479212447</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.735292367985346</v>
       </c>
       <c r="E37" t="n">
-        <v>3.949737450841418</v>
+        <v>3.936786421511356</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.804254719080982</v>
+        <v>-1.826564866106298</v>
       </c>
       <c r="G37" t="n">
-        <v>1.061055060914121</v>
+        <v>1.071210632284753</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.725182437555554</v>
       </c>
       <c r="E38" t="n">
-        <v>3.665449135285937</v>
+        <v>3.657909583694907</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.727322173498729</v>
+        <v>-1.750452384486243</v>
       </c>
       <c r="G38" t="n">
-        <v>0.9836510966050384</v>
+        <v>0.9956388262328645</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.706926655221977</v>
       </c>
       <c r="E39" t="n">
-        <v>3.322454628563305</v>
+        <v>3.31827403377713</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.689359980331199</v>
+        <v>-1.707816141538011</v>
       </c>
       <c r="G39" t="n">
-        <v>0.9002154910231316</v>
+        <v>0.9115799090789225</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>1.680459286042574</v>
       </c>
       <c r="E40" t="n">
-        <v>2.994186644739561</v>
+        <v>2.994997264587031</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.650592676383124</v>
+        <v>-1.664803708019787</v>
       </c>
       <c r="G40" t="n">
-        <v>0.8392915069140671</v>
+        <v>0.8515043212762392</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>1.6450737491003</v>
       </c>
       <c r="E41" t="n">
-        <v>2.672675925003561</v>
+        <v>2.673880049631356</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.63020834175272</v>
+        <v>-1.64436821776794</v>
       </c>
       <c r="G41" t="n">
-        <v>0.7849563668467674</v>
+        <v>0.7951733249631301</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>1.601666625479502</v>
       </c>
       <c r="E42" t="n">
-        <v>2.337406704128272</v>
+        <v>2.337825393214538</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.57852306287613</v>
+        <v>-1.591747971533298</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7235995274793453</v>
+        <v>0.7356045713175056</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>1.551241496803222</v>
       </c>
       <c r="E43" t="n">
-        <v>2.080670019272038</v>
+        <v>2.082788649009309</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.525765876977934</v>
+        <v>-1.538052670238807</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6477617121959568</v>
+        <v>0.6589293778615852</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>1.493773855122112</v>
       </c>
       <c r="E44" t="n">
-        <v>1.82725608878087</v>
+        <v>1.82858770895749</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.506820982833959</v>
+        <v>-1.515985709167732</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5619461897026433</v>
+        <v>0.570686717883226</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>1.428865055856227</v>
       </c>
       <c r="E45" t="n">
-        <v>1.601645632048357</v>
+        <v>1.602505046488587</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.427543148760968</v>
+        <v>-1.431413661780246</v>
       </c>
       <c r="G45" t="n">
-        <v>0.5072128227976546</v>
+        <v>0.513486863015159</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>1.3559657112527</v>
       </c>
       <c r="E46" t="n">
-        <v>1.389507204975057</v>
+        <v>1.392842551493093</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.365573228945799</v>
+        <v>-1.371068129698259</v>
       </c>
       <c r="G46" t="n">
-        <v>0.4443764054562098</v>
+        <v>0.4510455244731608</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>1.27552856880953</v>
       </c>
       <c r="E47" t="n">
-        <v>1.237416033360257</v>
+        <v>1.23771037493594</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.318038638492079</v>
+        <v>-1.321616383954795</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3804995614755852</v>
+        <v>0.3875291308713141</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>1.189129267825737</v>
       </c>
       <c r="E48" t="n">
-        <v>1.027695299657274</v>
+        <v>1.027830665301706</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.239895672205545</v>
+        <v>-1.24152242096741</v>
       </c>
       <c r="G48" t="n">
-        <v>0.2951578187377832</v>
+        <v>0.3006338312607884</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>1.098169266805592</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8703846806362409</v>
+        <v>0.8706837442692881</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.169177354114187</v>
+        <v>-1.169794369609737</v>
       </c>
       <c r="G49" t="n">
-        <v>0.2503297541631397</v>
+        <v>0.2540412912511667</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>1.004083820060502</v>
       </c>
       <c r="E50" t="n">
-        <v>0.771375729868185</v>
+        <v>0.7689722026699589</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.096437995471079</v>
+        <v>-1.097372175819571</v>
       </c>
       <c r="G50" t="n">
-        <v>0.2129704103190678</v>
+        <v>0.2169290684091391</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.9075401303843097</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6359707349582934</v>
+        <v>0.6336647969455879</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.064183982646946</v>
+        <v>-1.064995389503977</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1712384413560227</v>
+        <v>0.17538598174065</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.8103604337917908</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4632111182616938</v>
+        <v>0.4594161581602378</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.027503041044155</v>
+        <v>-1.027328324921691</v>
       </c>
       <c r="G52" t="n">
-        <v>0.1285227104421646</v>
+        <v>0.1320563833694847</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.7138870227012843</v>
       </c>
       <c r="E53" t="n">
-        <v>0.402609808072496</v>
+        <v>0.396647423641009</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.02608091476806</v>
+        <v>-1.021581581109822</v>
       </c>
       <c r="G53" t="n">
-        <v>0.1014842099764614</v>
+        <v>0.1046291001808202</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.618873569501608</v>
       </c>
       <c r="E54" t="n">
-        <v>0.2462341564095153</v>
+        <v>0.2422865164532931</v>
       </c>
       <c r="F54" t="n">
-        <v>-0.9654339580243444</v>
+        <v>-0.9602459910005373</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05480982097253213</v>
+        <v>0.0570370580291726</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.5259426105924339</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1276365376768724</v>
+        <v>0.1236023266689787</v>
       </c>
       <c r="F55" t="n">
-        <v>-0.9406888034183764</v>
+        <v>-0.9313651011533517</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02769419356988518</v>
+        <v>0.02974671450406127</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.4355537865946165</v>
       </c>
       <c r="E56" t="n">
-        <v>0.03930415860859905</v>
+        <v>0.03348500991715041</v>
       </c>
       <c r="F56" t="n">
-        <v>-0.9245818657501064</v>
+        <v>-0.9141587111288533</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.008130481630918477</v>
+        <v>-0.00745050537051658</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3492643945927597</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.07315635957009249</v>
+        <v>-0.07960983796742531</v>
       </c>
       <c r="F57" t="n">
-        <v>-0.9253240157657997</v>
+        <v>-0.9149834971484148</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.05058335135151933</v>
+        <v>-0.05161433387597128</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.2681900439020643</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1283745243644419</v>
+        <v>-0.1322324452307499</v>
       </c>
       <c r="F58" t="n">
-        <v>-0.9056157223479937</v>
+        <v>-0.894930493543044</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.0807273915435488</v>
+        <v>-0.08093044001019659</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.1933171585411778</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2079049885064018</v>
+        <v>-0.2103525882400243</v>
       </c>
       <c r="F59" t="n">
-        <v>-0.913785668597105</v>
+        <v>-0.8990024810098489</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1058204043753244</v>
+        <v>-0.1059148455226024</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.1252992483555107</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.3009247965179085</v>
+        <v>-0.3016630114857985</v>
       </c>
       <c r="F60" t="n">
-        <v>-0.9100450121553338</v>
+        <v>-0.8949257714856801</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1247715945957846</v>
+        <v>-0.1229111039944072</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.06399820421836117</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.3936833173552793</v>
+        <v>-0.3921817031135585</v>
       </c>
       <c r="F61" t="n">
-        <v>-0.8917399567841675</v>
+        <v>-0.8770291740764913</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.1464631521064294</v>
+        <v>-0.1431954884106092</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.01050296378970752</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.501779080510604</v>
+        <v>-0.4995392513009932</v>
       </c>
       <c r="F62" t="n">
-        <v>-0.8807493682696855</v>
+        <v>-0.8661975614932607</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1756375965197377</v>
+        <v>-0.1735126707059818</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.03525030799009542</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.565810178365116</v>
+        <v>-0.5644329116339779</v>
       </c>
       <c r="F63" t="n">
-        <v>-0.8899447879763241</v>
+        <v>-0.8733365252179199</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1967813953761698</v>
+        <v>-0.1927519064256401</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.07356623519170982</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.6862037529151631</v>
+        <v>-0.6841764162869278</v>
       </c>
       <c r="F64" t="n">
-        <v>-0.9116119481905888</v>
+        <v>-0.8928693155037007</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.2337267721913396</v>
+        <v>-0.2298798694588807</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.1047930033560934</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8080753314201115</v>
+        <v>-0.8038978846721794</v>
       </c>
       <c r="F65" t="n">
-        <v>-0.9460782448897099</v>
+        <v>-0.9274253312927361</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.2793135139824501</v>
+        <v>-0.2756995660799437</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.1296023492913802</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.9048271387682221</v>
+        <v>-0.902648696304342</v>
       </c>
       <c r="F66" t="n">
-        <v>-0.9753030579148998</v>
+        <v>-0.9579636632746513</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3057082406275413</v>
+        <v>-0.2998465934198176</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.1483670125566915</v>
       </c>
       <c r="E67" t="n">
-        <v>-0.9477136507567413</v>
+        <v>-0.943435466785046</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.014578770039155</v>
+        <v>-0.997871344076109</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3453341720062861</v>
+        <v>-0.3385942221288766</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.1615147324713589</v>
       </c>
       <c r="E68" t="n">
-        <v>-0.9934758956798768</v>
+        <v>-0.9902987380835314</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.024932667819071</v>
+        <v>-1.00553288214904</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.3681574492651461</v>
+        <v>-0.3607516892994264</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.1697632746288259</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.059212443252318</v>
+        <v>-1.05333348183426</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.073011868888761</v>
+        <v>-1.052132505244708</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.3879869421552922</v>
+        <v>-0.3803718376464394</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.1736089900647732</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.085856651928135</v>
+        <v>-1.0766651672693</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.116467388789631</v>
+        <v>-1.09256590843268</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4012622194243421</v>
+        <v>-0.3932614802307708</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.17403626991987</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.105508280657575</v>
+        <v>-1.095094570151049</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.125246480438685</v>
+        <v>-1.10117107096883</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.4310898817729902</v>
+        <v>-0.4231458072677856</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.1717374347163339</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.130245565167936</v>
+        <v>-1.114414867855455</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.16771666436962</v>
+        <v>-1.142883364692859</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.4086774235047897</v>
+        <v>-0.3990302603103378</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.1673351930131372</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.105293427047517</v>
+        <v>-1.088465588621691</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.192585379476611</v>
+        <v>-1.169780990447206</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.4154016331909862</v>
+        <v>-0.4041111940338964</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.1611710001803721</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.108905800930902</v>
+        <v>-1.090469314963107</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.215544809389463</v>
+        <v>-1.194227868429688</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.4198702734763589</v>
+        <v>-0.4107504066875427</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.1537361646597931</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.066891295535584</v>
+        <v>-1.046905187742868</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.232272697601086</v>
+        <v>-1.210088472105474</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.4269549335413333</v>
+        <v>-0.4173187884807305</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.145290983059631</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.9778931063790001</v>
+        <v>-0.9566753286238667</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.2472707387984</v>
+        <v>-1.22161580114032</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.4003083638368339</v>
+        <v>-0.3903983394491248</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.1362452647021697</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.9164599270841949</v>
+        <v>-0.8930581977982569</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.256932068164943</v>
+        <v>-1.232288437792299</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.3830775765159553</v>
+        <v>-0.3727882135200127</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.1271201594943221</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.7682148711922928</v>
+        <v>-0.7463328573679706</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.24319245525511</v>
+        <v>-1.219131211957347</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.3391073523624206</v>
+        <v>-0.3280026474616443</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.1181400951972834</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.6547768871392735</v>
+        <v>-0.6328004321676733</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.263697202348294</v>
+        <v>-1.240625230068268</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.3244264760180491</v>
+        <v>-0.3148879201429669</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.1092913879673724</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.4974977485006662</v>
+        <v>-0.4784647092858983</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.259572485240925</v>
+        <v>-1.238849736499441</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3020187398072125</v>
+        <v>-0.2906023791204186</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.1008964067417365</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.3526612310159408</v>
+        <v>-0.3336344878776581</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.277334504015243</v>
+        <v>-1.261481770435063</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2786634440853529</v>
+        <v>-0.2679490959266591</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.09319588857055812</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1916186126583035</v>
+        <v>-0.1745656894981319</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.28928681821284</v>
+        <v>-1.27449890856822</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2533988631693556</v>
+        <v>-0.2426923851062683</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.08614459053114115</v>
       </c>
       <c r="E83" t="n">
-        <v>0.002988389441949581</v>
+        <v>0.01922597069728748</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.269506906925014</v>
+        <v>-1.258804363909731</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1891316624466485</v>
+        <v>-0.1796088467627793</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.079801204743441</v>
       </c>
       <c r="E84" t="n">
-        <v>0.1670484024551203</v>
+        <v>0.1832765395957304</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.26813357524168</v>
+        <v>-1.258105499419873</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1655182275888956</v>
+        <v>-0.1554035807154173</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.07432478568476841</v>
       </c>
       <c r="E85" t="n">
-        <v>0.3366033162207517</v>
+        <v>0.3500249772680826</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.189395629727295</v>
+        <v>-1.185135546975495</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1203423047884445</v>
+        <v>-0.1115136315370689</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.06998893815220054</v>
       </c>
       <c r="E86" t="n">
-        <v>0.5390379154112331</v>
+        <v>0.5483576826284545</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.119566632439472</v>
+        <v>-1.117627440882029</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.06784404503570267</v>
+        <v>-0.06124103482184629</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06706553419051858</v>
       </c>
       <c r="E87" t="n">
-        <v>0.7278729893936766</v>
+        <v>0.7363978769546412</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.037827819470327</v>
+        <v>-1.04072401465352</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.0221392518104946</v>
+        <v>-0.01706304014429988</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.06616575678022589</v>
       </c>
       <c r="E88" t="n">
-        <v>0.8847696413858079</v>
+        <v>0.888120728095057</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.9131466168338569</v>
+        <v>-0.918478606607263</v>
       </c>
       <c r="G88" t="n">
-        <v>0.002010923567621854</v>
+        <v>0.006791219639012043</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.06782871612539147</v>
       </c>
       <c r="E89" t="n">
-        <v>1.024561427586764</v>
+        <v>1.026081930057941</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.8080407029994429</v>
+        <v>-0.8180278543240956</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03617815663369588</v>
+        <v>0.04398371745622599</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.07277146704356346</v>
       </c>
       <c r="E90" t="n">
-        <v>1.125076714653905</v>
+        <v>1.120903989963337</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.6630420615452235</v>
+        <v>-0.6742805580713104</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05389374184393513</v>
+        <v>0.06055971282264354</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.08226477019159231</v>
       </c>
       <c r="E91" t="n">
-        <v>1.224847490676671</v>
+        <v>1.219651653557257</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.4896134867220711</v>
+        <v>-0.5024149842356096</v>
       </c>
       <c r="G91" t="n">
-        <v>0.02821676791815701</v>
+        <v>0.03401230632278614</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.09672220844654758</v>
       </c>
       <c r="E92" t="n">
-        <v>1.261363160271725</v>
+        <v>1.253307330408908</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.3406105406232627</v>
+        <v>-0.3572290345059554</v>
       </c>
       <c r="G92" t="n">
-        <v>0.05541896637247549</v>
+        <v>0.06100358621485033</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.1162167692803613</v>
       </c>
       <c r="E93" t="n">
-        <v>1.290265299377048</v>
+        <v>1.280172688771269</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.2330861464089702</v>
+        <v>-0.2495960329722931</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04279061096228007</v>
+        <v>0.04553570030982847</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.1397727330112556</v>
       </c>
       <c r="E94" t="n">
-        <v>1.240608144138254</v>
+        <v>1.22898558694657</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.1062863140352294</v>
+        <v>-0.1247007637353261</v>
       </c>
       <c r="G94" t="n">
-        <v>0.06028425947641592</v>
+        <v>0.06488511736797783</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.1663713928898626</v>
       </c>
       <c r="E95" t="n">
-        <v>1.210805666095547</v>
+        <v>1.200009468942546</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.01747071109671676</v>
+        <v>-0.03273712255421213</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01680827732696962</v>
+        <v>0.02190652526086255</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.1946964678074992</v>
       </c>
       <c r="E96" t="n">
-        <v>1.122306441000416</v>
+        <v>1.111828195709917</v>
       </c>
       <c r="F96" t="n">
-        <v>0.06065257995080028</v>
+        <v>0.04671936268904659</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.02458527752499587</v>
+        <v>-0.01948545557198164</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.2231252324753329</v>
       </c>
       <c r="E97" t="n">
-        <v>1.061749203346615</v>
+        <v>1.054634636918335</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1085625739649506</v>
+        <v>0.09464037483704603</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.01124389145285124</v>
+        <v>-0.005774175006331347</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.2499545715648605</v>
       </c>
       <c r="E98" t="n">
-        <v>0.9600549759576198</v>
+        <v>0.951120843425117</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1055121249078699</v>
+        <v>0.09315607480565948</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.06423481919056019</v>
+        <v>-0.05969692206385031</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.2741128043148065</v>
       </c>
       <c r="E99" t="n">
-        <v>0.9023042143970975</v>
+        <v>0.8966503377133854</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1193981215959845</v>
+        <v>0.107836951150031</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.05607982612310133</v>
+        <v>-0.05047946608951348</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.2946396710916384</v>
       </c>
       <c r="E100" t="n">
-        <v>0.8500562236846425</v>
+        <v>0.845002048286146</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1123968845444391</v>
+        <v>0.1021830744663189</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.06427259564947141</v>
+        <v>-0.05952692799874983</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.3101570481870038</v>
       </c>
       <c r="E101" t="n">
-        <v>0.7700740160548694</v>
+        <v>0.7655975056738902</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1067965245108512</v>
+        <v>0.09727685686522468</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.06238534672303189</v>
+        <v>-0.05797651916426866</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.3190094994795457</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7469044545893232</v>
+        <v>0.7435879963007427</v>
       </c>
       <c r="F102" t="n">
-        <v>0.1064943128395615</v>
+        <v>0.0982338604909755</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.06236960653181887</v>
+        <v>-0.05872417824688649</v>
       </c>
     </row>
   </sheetData>
